--- a/ent_infoConnect/NOTES_fbl311 .xlsx
+++ b/ent_infoConnect/NOTES_fbl311 .xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projets\projet_inf331\infoConnect\ent_infoConnect\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -22,592 +26,574 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="186">
   <si>
-    <t xml:space="preserve">MATRICULE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRENOMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC(/20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TPS(/30)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXAMEN(/50)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21V8623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wolters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19U5907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21T2158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wilhelmina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yandell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17T1173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21S4397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Becerra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20S7401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buckthorpe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17U9001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hanna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Olsson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21S2146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hubert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wills</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21S0320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Austin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cowlam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23T2231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Walton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nassey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14U9945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arvie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duffet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21U8192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adriana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simoens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21V1895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barnabe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buxcy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21U0229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reolfo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21U1896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beever</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21S3570</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gusta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emloch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21U7531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stepha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21U8159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bugs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17S7049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maiga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21S7149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ilyssa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coulbeck</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21T2032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nehemiah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bould</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21V1799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creighton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Windas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17S2688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jacquenette</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lammenga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21U5780</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matthias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pothergill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14S1742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rebeka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Otteridge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22T1390</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cindra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bartelli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22T9244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dorey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scheu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21S0330</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jakie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dixson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20U1616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lydia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lenham</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21S1724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bronnie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">de Clerk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19U5796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cristen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruttgers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17S0862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lilia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vanyukov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21T8930</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pitrelli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21V9600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apple</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21S9091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andrej</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dowse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19T6541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jamesy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stallion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21S8363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wickman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21U5740</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18V1178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blancha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cluney</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19U6670</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lyndy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stuffins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21U0266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiorenze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Houlden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17S8348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nichol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Craft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17U0939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arlette</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23V6126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Celie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lambertson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21S6099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loeber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21V5392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabrielle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wonter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22T3854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hovell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22U5031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matzke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20T0159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baudoin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bowmaker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22S7944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orbadiah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zannotelli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21S6959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lenka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brisseau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20U2855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCHAMI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SORELLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18T1699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jess</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hatch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21U3079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fassbender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21T4985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jelene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pashler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18T2660</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adrianne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stegers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21V0455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vyky</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crennan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14V0993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iceton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22S4254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yetty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thorius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21T2862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NGUIMGO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WILSON</t>
+    <t>MATRICULE</t>
+  </si>
+  <si>
+    <t>NOM</t>
+  </si>
+  <si>
+    <t>PRENOMS</t>
+  </si>
+  <si>
+    <t>CC(/20)</t>
+  </si>
+  <si>
+    <t>TPS(/30)</t>
+  </si>
+  <si>
+    <t>EXAMEN(/50)</t>
+  </si>
+  <si>
+    <t>21V8623</t>
+  </si>
+  <si>
+    <t>Gabie</t>
+  </si>
+  <si>
+    <t>Wolters</t>
+  </si>
+  <si>
+    <t>19U5907</t>
+  </si>
+  <si>
+    <t>Aura</t>
+  </si>
+  <si>
+    <t>Shall</t>
+  </si>
+  <si>
+    <t>21T2158</t>
+  </si>
+  <si>
+    <t>Wilhelmina</t>
+  </si>
+  <si>
+    <t>Yandell</t>
+  </si>
+  <si>
+    <t>17T1173</t>
+  </si>
+  <si>
+    <t>Suki</t>
+  </si>
+  <si>
+    <t>Verick</t>
+  </si>
+  <si>
+    <t>21S4397</t>
+  </si>
+  <si>
+    <t>Flo</t>
+  </si>
+  <si>
+    <t>Becerra</t>
+  </si>
+  <si>
+    <t>20S7401</t>
+  </si>
+  <si>
+    <t>Debera</t>
+  </si>
+  <si>
+    <t>Buckthorpe</t>
+  </si>
+  <si>
+    <t>17U9001</t>
+  </si>
+  <si>
+    <t>Hanna</t>
+  </si>
+  <si>
+    <t>Olsson</t>
+  </si>
+  <si>
+    <t>21S2146</t>
+  </si>
+  <si>
+    <t>Hubert</t>
+  </si>
+  <si>
+    <t>Wills</t>
+  </si>
+  <si>
+    <t>21S0320</t>
+  </si>
+  <si>
+    <t>Austin</t>
+  </si>
+  <si>
+    <t>Cowlam</t>
+  </si>
+  <si>
+    <t>23T2231</t>
+  </si>
+  <si>
+    <t>Walton</t>
+  </si>
+  <si>
+    <t>Nassey</t>
+  </si>
+  <si>
+    <t>14U9945</t>
+  </si>
+  <si>
+    <t>Arvie</t>
+  </si>
+  <si>
+    <t>Duffet</t>
+  </si>
+  <si>
+    <t>21U8192</t>
+  </si>
+  <si>
+    <t>Adriana</t>
+  </si>
+  <si>
+    <t>Simoens</t>
+  </si>
+  <si>
+    <t>21V1895</t>
+  </si>
+  <si>
+    <t>Barnabe</t>
+  </si>
+  <si>
+    <t>Buxcy</t>
+  </si>
+  <si>
+    <t>21U0229</t>
+  </si>
+  <si>
+    <t>Mae</t>
+  </si>
+  <si>
+    <t>Reolfo</t>
+  </si>
+  <si>
+    <t>21U1896</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>Beever</t>
+  </si>
+  <si>
+    <t>21S3570</t>
+  </si>
+  <si>
+    <t>Gusta</t>
+  </si>
+  <si>
+    <t>Emloch</t>
+  </si>
+  <si>
+    <t>21U7531</t>
+  </si>
+  <si>
+    <t>Stepha</t>
+  </si>
+  <si>
+    <t>Logan</t>
+  </si>
+  <si>
+    <t>21U8159</t>
+  </si>
+  <si>
+    <t>Brien</t>
+  </si>
+  <si>
+    <t>Bugs</t>
+  </si>
+  <si>
+    <t>17S7049</t>
+  </si>
+  <si>
+    <t>Maiga</t>
+  </si>
+  <si>
+    <t>Impson</t>
+  </si>
+  <si>
+    <t>21S7149</t>
+  </si>
+  <si>
+    <t>Ilyssa</t>
+  </si>
+  <si>
+    <t>Coulbeck</t>
+  </si>
+  <si>
+    <t>21T2032</t>
+  </si>
+  <si>
+    <t>Nehemiah</t>
+  </si>
+  <si>
+    <t>Bould</t>
+  </si>
+  <si>
+    <t>21V1799</t>
+  </si>
+  <si>
+    <t>Creighton</t>
+  </si>
+  <si>
+    <t>Windas</t>
+  </si>
+  <si>
+    <t>17S2688</t>
+  </si>
+  <si>
+    <t>Jacquenette</t>
+  </si>
+  <si>
+    <t>Lammenga</t>
+  </si>
+  <si>
+    <t>21U5780</t>
+  </si>
+  <si>
+    <t>Matthias</t>
+  </si>
+  <si>
+    <t>Pothergill</t>
+  </si>
+  <si>
+    <t>14S1742</t>
+  </si>
+  <si>
+    <t>Rebeka</t>
+  </si>
+  <si>
+    <t>Otteridge</t>
+  </si>
+  <si>
+    <t>22T1390</t>
+  </si>
+  <si>
+    <t>Cindra</t>
+  </si>
+  <si>
+    <t>Bartelli</t>
+  </si>
+  <si>
+    <t>22T9244</t>
+  </si>
+  <si>
+    <t>Dorey</t>
+  </si>
+  <si>
+    <t>Scheu</t>
+  </si>
+  <si>
+    <t>21S0330</t>
+  </si>
+  <si>
+    <t>Jakie</t>
+  </si>
+  <si>
+    <t>Dixson</t>
+  </si>
+  <si>
+    <t>20U1616</t>
+  </si>
+  <si>
+    <t>Lydia</t>
+  </si>
+  <si>
+    <t>Lenham</t>
+  </si>
+  <si>
+    <t>21S1724</t>
+  </si>
+  <si>
+    <t>Bronnie</t>
+  </si>
+  <si>
+    <t>de Clerk</t>
+  </si>
+  <si>
+    <t>19U5796</t>
+  </si>
+  <si>
+    <t>Cristen</t>
+  </si>
+  <si>
+    <t>Ruttgers</t>
+  </si>
+  <si>
+    <t>17S0862</t>
+  </si>
+  <si>
+    <t>Lilia</t>
+  </si>
+  <si>
+    <t>Vanyukov</t>
+  </si>
+  <si>
+    <t>21T8930</t>
+  </si>
+  <si>
+    <t>Gabey</t>
+  </si>
+  <si>
+    <t>Pitrelli</t>
+  </si>
+  <si>
+    <t>21V9600</t>
+  </si>
+  <si>
+    <t>Anton</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>21S9091</t>
+  </si>
+  <si>
+    <t>Andrej</t>
+  </si>
+  <si>
+    <t>Dowse</t>
+  </si>
+  <si>
+    <t>19T6541</t>
+  </si>
+  <si>
+    <t>Jamesy</t>
+  </si>
+  <si>
+    <t>Stallion</t>
+  </si>
+  <si>
+    <t>21S8363</t>
+  </si>
+  <si>
+    <t>Andi</t>
+  </si>
+  <si>
+    <t>Wickman</t>
+  </si>
+  <si>
+    <t>21U5740</t>
+  </si>
+  <si>
+    <t>Inez</t>
+  </si>
+  <si>
+    <t>Amber</t>
+  </si>
+  <si>
+    <t>18V1178</t>
+  </si>
+  <si>
+    <t>Blancha</t>
+  </si>
+  <si>
+    <t>Cluney</t>
+  </si>
+  <si>
+    <t>19U6670</t>
+  </si>
+  <si>
+    <t>Lyndy</t>
+  </si>
+  <si>
+    <t>Stuffins</t>
+  </si>
+  <si>
+    <t>21U0266</t>
+  </si>
+  <si>
+    <t>Fiorenze</t>
+  </si>
+  <si>
+    <t>Houlden</t>
+  </si>
+  <si>
+    <t>17S8348</t>
+  </si>
+  <si>
+    <t>Nichol</t>
+  </si>
+  <si>
+    <t>Craft</t>
+  </si>
+  <si>
+    <t>17U0939</t>
+  </si>
+  <si>
+    <t>Arlette</t>
+  </si>
+  <si>
+    <t>Lill</t>
+  </si>
+  <si>
+    <t>23V6126</t>
+  </si>
+  <si>
+    <t>Celie</t>
+  </si>
+  <si>
+    <t>Lambertson</t>
+  </si>
+  <si>
+    <t>21S6099</t>
+  </si>
+  <si>
+    <t>Evania</t>
+  </si>
+  <si>
+    <t>Loeber</t>
+  </si>
+  <si>
+    <t>21V5392</t>
+  </si>
+  <si>
+    <t>Gabrielle</t>
+  </si>
+  <si>
+    <t>Wonter</t>
+  </si>
+  <si>
+    <t>22T3854</t>
+  </si>
+  <si>
+    <t>Verla</t>
+  </si>
+  <si>
+    <t>Hovell</t>
+  </si>
+  <si>
+    <t>22U5031</t>
+  </si>
+  <si>
+    <t>Toby</t>
+  </si>
+  <si>
+    <t>Matzke</t>
+  </si>
+  <si>
+    <t>20T0159</t>
+  </si>
+  <si>
+    <t>Baudoin</t>
+  </si>
+  <si>
+    <t>Bowmaker</t>
+  </si>
+  <si>
+    <t>22S7944</t>
+  </si>
+  <si>
+    <t>Orbadiah</t>
+  </si>
+  <si>
+    <t>Zannotelli</t>
+  </si>
+  <si>
+    <t>21S6959</t>
+  </si>
+  <si>
+    <t>Lenka</t>
+  </si>
+  <si>
+    <t>Brisseau</t>
+  </si>
+  <si>
+    <t>20U2855</t>
+  </si>
+  <si>
+    <t>TCHAMI</t>
+  </si>
+  <si>
+    <t>SORELLE</t>
+  </si>
+  <si>
+    <t>18T1699</t>
+  </si>
+  <si>
+    <t>Jess</t>
+  </si>
+  <si>
+    <t>Hatch</t>
+  </si>
+  <si>
+    <t>21U3079</t>
+  </si>
+  <si>
+    <t>Isis</t>
+  </si>
+  <si>
+    <t>Fassbender</t>
+  </si>
+  <si>
+    <t>21T4985</t>
+  </si>
+  <si>
+    <t>Jelene</t>
+  </si>
+  <si>
+    <t>Pashler</t>
+  </si>
+  <si>
+    <t>18T2660</t>
+  </si>
+  <si>
+    <t>Adrianne</t>
+  </si>
+  <si>
+    <t>Stegers</t>
+  </si>
+  <si>
+    <t>21V0455</t>
+  </si>
+  <si>
+    <t>Vyky</t>
+  </si>
+  <si>
+    <t>Crennan</t>
+  </si>
+  <si>
+    <t>14V0993</t>
+  </si>
+  <si>
+    <t>Gabe</t>
+  </si>
+  <si>
+    <t>Iceton</t>
+  </si>
+  <si>
+    <t>22S4254</t>
+  </si>
+  <si>
+    <t>Yetty</t>
+  </si>
+  <si>
+    <t>Thorius</t>
+  </si>
+  <si>
+    <t>21T2862</t>
+  </si>
+  <si>
+    <t>NGUIMGO</t>
+  </si>
+  <si>
+    <t>WILSON</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -631,7 +617,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -639,72 +625,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Normal" xfId="20"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <b val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <i val="0"/>
+        <sz val="10"/>
         <color rgb="FFFFFFFF"/>
-        <sz val="10"/>
+        <name val="Arial"/>
       </font>
       <fill>
         <patternFill>
@@ -712,18 +663,8 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-        <sz val="10"/>
-      </font>
-    </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -782,29 +723,303 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMJ61"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F62" activeCellId="0" sqref="F62"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" topLeftCell="A49" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.47265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="1" width="9.46"/>
+    <col min="1" max="6" width="11.5703125" style="1" customWidth="1"/>
+    <col min="7" max="1024" width="9.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -824,7 +1039,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -834,17 +1049,17 @@
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="n">
-        <v>10.05</v>
-      </c>
-      <c r="E2" s="2" t="n">
+      <c r="D2" s="2">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="E2" s="2">
         <v>20.84</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="2">
         <v>10.36</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -854,17 +1069,17 @@
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="2">
         <v>15.71</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="2">
         <v>22.71</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="2">
         <v>31.78</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -874,17 +1089,17 @@
       <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="2">
         <v>11.38</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="2">
         <v>16.2</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="F4" s="2">
         <v>30.6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -894,17 +1109,17 @@
       <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="2">
         <v>9</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="2">
         <v>20.56</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="2">
         <v>42.27</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -914,17 +1129,17 @@
       <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="2">
         <v>9.31</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="2">
         <v>20.74</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F6" s="2">
         <v>38.4</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -934,17 +1149,17 @@
       <c r="C7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="2">
         <v>13.27</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="E7" s="2">
         <v>25.94</v>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="F7" s="2">
         <v>21.87</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
@@ -954,17 +1169,17 @@
       <c r="C8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="2">
         <v>19.32</v>
       </c>
-      <c r="E8" s="2" t="n">
-        <v>9.3</v>
-      </c>
-      <c r="F8" s="2" t="n">
+      <c r="E8" s="2">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F8" s="2">
         <v>26.2</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
@@ -974,17 +1189,17 @@
       <c r="C9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="2">
         <v>6.45</v>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="E9" s="2">
         <v>26.11</v>
       </c>
-      <c r="F9" s="2" t="n">
+      <c r="F9" s="2">
         <v>31.15</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
@@ -994,17 +1209,17 @@
       <c r="C10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="2">
         <v>9.98</v>
       </c>
-      <c r="E10" s="2" t="n">
-        <v>8.12</v>
-      </c>
-      <c r="F10" s="2" t="n">
+      <c r="E10" s="2">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="F10" s="2">
         <v>15.03</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
@@ -1014,17 +1229,17 @@
       <c r="C11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" s="2">
         <v>7.61</v>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="E11" s="2">
         <v>25.48</v>
       </c>
-      <c r="F11" s="2" t="n">
+      <c r="F11" s="2">
         <v>4.49</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>36</v>
       </c>
@@ -1034,17 +1249,17 @@
       <c r="C12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="2">
         <v>16.87</v>
       </c>
-      <c r="E12" s="2" t="n">
+      <c r="E12" s="2">
         <v>7.93</v>
       </c>
-      <c r="F12" s="2" t="n">
-        <v>9.05</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F12" s="2">
+        <v>9.0500000000000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>39</v>
       </c>
@@ -1054,17 +1269,17 @@
       <c r="C13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" s="2">
         <v>14.91</v>
       </c>
-      <c r="E13" s="2" t="n">
+      <c r="E13" s="2">
         <v>0.8</v>
       </c>
-      <c r="F13" s="2" t="n">
+      <c r="F13" s="2">
         <v>1.26</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>42</v>
       </c>
@@ -1074,17 +1289,17 @@
       <c r="C14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" s="2">
         <v>0.65</v>
       </c>
-      <c r="E14" s="2" t="n">
+      <c r="E14" s="2">
         <v>15.89</v>
       </c>
-      <c r="F14" s="2" t="n">
+      <c r="F14" s="2">
         <v>7.7</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>45</v>
       </c>
@@ -1094,17 +1309,17 @@
       <c r="C15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" s="2">
         <v>15.37</v>
       </c>
-      <c r="E15" s="2" t="n">
+      <c r="E15" s="2">
         <v>24.28</v>
       </c>
-      <c r="F15" s="2" t="n">
+      <c r="F15" s="2">
         <v>21.05</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>48</v>
       </c>
@@ -1114,17 +1329,17 @@
       <c r="C16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="2" t="n">
+      <c r="D16" s="2">
         <v>1.81</v>
       </c>
-      <c r="E16" s="2" t="n">
+      <c r="E16" s="2">
         <v>14.38</v>
       </c>
-      <c r="F16" s="2" t="n">
-        <v>4.31</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F16" s="2">
+        <v>4.3099999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>51</v>
       </c>
@@ -1134,17 +1349,17 @@
       <c r="C17" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="2" t="n">
+      <c r="D17" s="2">
         <v>8.36</v>
       </c>
-      <c r="E17" s="2" t="n">
+      <c r="E17" s="2">
         <v>19.48</v>
       </c>
-      <c r="F17" s="2" t="n">
+      <c r="F17" s="2">
         <v>20.66</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>54</v>
       </c>
@@ -1154,17 +1369,17 @@
       <c r="C18" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="2" t="n">
+      <c r="D18" s="2">
         <v>13.63</v>
       </c>
-      <c r="E18" s="2" t="n">
+      <c r="E18" s="2">
         <v>3.67</v>
       </c>
-      <c r="F18" s="2" t="n">
+      <c r="F18" s="2">
         <v>39.03</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>57</v>
       </c>
@@ -1174,17 +1389,17 @@
       <c r="C19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="2" t="n">
+      <c r="D19" s="2">
         <v>3.88</v>
       </c>
-      <c r="E19" s="2" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="F19" s="2" t="n">
+      <c r="E19" s="2">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="F19" s="2">
         <v>2.64</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>60</v>
       </c>
@@ -1194,17 +1409,17 @@
       <c r="C20" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="2" t="n">
+      <c r="D20" s="2">
         <v>16.28</v>
       </c>
-      <c r="E20" s="2" t="n">
+      <c r="E20" s="2">
         <v>5.78</v>
       </c>
-      <c r="F20" s="2" t="n">
+      <c r="F20" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>63</v>
       </c>
@@ -1214,17 +1429,17 @@
       <c r="C21" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="2" t="n">
+      <c r="D21" s="2">
         <v>2.46</v>
       </c>
-      <c r="E21" s="2" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="F21" s="2" t="n">
+      <c r="E21" s="2">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="F21" s="2">
         <v>48.75</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>66</v>
       </c>
@@ -1234,17 +1449,17 @@
       <c r="C22" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="2" t="n">
-        <v>17.08</v>
-      </c>
-      <c r="E22" s="2" t="n">
+      <c r="D22" s="2">
+        <v>17.079999999999998</v>
+      </c>
+      <c r="E22" s="2">
         <v>5.94</v>
       </c>
-      <c r="F22" s="2" t="n">
+      <c r="F22" s="2">
         <v>15.42</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>69</v>
       </c>
@@ -1254,17 +1469,17 @@
       <c r="C23" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="2" t="n">
+      <c r="D23" s="2">
         <v>3.99</v>
       </c>
-      <c r="E23" s="2" t="n">
+      <c r="E23" s="2">
         <v>3.67</v>
       </c>
-      <c r="F23" s="2" t="n">
+      <c r="F23" s="2">
         <v>31.87</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>72</v>
       </c>
@@ -1274,17 +1489,17 @@
       <c r="C24" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="2" t="n">
+      <c r="D24" s="2">
         <v>0.94</v>
       </c>
-      <c r="E24" s="2" t="n">
+      <c r="E24" s="2">
         <v>21.03</v>
       </c>
-      <c r="F24" s="2" t="n">
+      <c r="F24" s="2">
         <v>8.34</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>75</v>
       </c>
@@ -1294,17 +1509,17 @@
       <c r="C25" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="2" t="n">
-        <v>18.01</v>
-      </c>
-      <c r="E25" s="2" t="n">
+      <c r="D25" s="2">
+        <v>18.010000000000002</v>
+      </c>
+      <c r="E25" s="2">
         <v>25.59</v>
       </c>
-      <c r="F25" s="2" t="n">
+      <c r="F25" s="2">
         <v>48.43</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>78</v>
       </c>
@@ -1314,17 +1529,17 @@
       <c r="C26" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="2" t="n">
+      <c r="D26" s="2">
         <v>2.48</v>
       </c>
-      <c r="E26" s="2" t="n">
+      <c r="E26" s="2">
         <v>19.09</v>
       </c>
-      <c r="F26" s="2" t="n">
+      <c r="F26" s="2">
         <v>26.74</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>81</v>
       </c>
@@ -1334,17 +1549,17 @@
       <c r="C27" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="2" t="n">
+      <c r="D27" s="2">
         <v>4.53</v>
       </c>
-      <c r="E27" s="2" t="n">
+      <c r="E27" s="2">
         <v>12.15</v>
       </c>
-      <c r="F27" s="2" t="n">
+      <c r="F27" s="2">
         <v>11.94</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>84</v>
       </c>
@@ -1354,17 +1569,17 @@
       <c r="C28" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D28" s="2" t="n">
+      <c r="D28" s="2">
         <v>0.34</v>
       </c>
-      <c r="E28" s="2" t="n">
+      <c r="E28" s="2">
         <v>29.66</v>
       </c>
-      <c r="F28" s="2" t="n">
+      <c r="F28" s="2">
         <v>12.69</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>87</v>
       </c>
@@ -1374,17 +1589,17 @@
       <c r="C29" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D29" s="2" t="n">
+      <c r="D29" s="2">
         <v>15.28</v>
       </c>
-      <c r="E29" s="2" t="n">
+      <c r="E29" s="2">
         <v>14.02</v>
       </c>
-      <c r="F29" s="2" t="n">
+      <c r="F29" s="2">
         <v>47.13</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>90</v>
       </c>
@@ -1394,17 +1609,17 @@
       <c r="C30" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D30" s="2" t="n">
+      <c r="D30" s="2">
         <v>4.75</v>
       </c>
-      <c r="E30" s="2" t="n">
-        <v>17.01</v>
-      </c>
-      <c r="F30" s="2" t="n">
+      <c r="E30" s="2">
+        <v>17.010000000000002</v>
+      </c>
+      <c r="F30" s="2">
         <v>23.52</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>93</v>
       </c>
@@ -1414,17 +1629,17 @@
       <c r="C31" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D31" s="2" t="n">
+      <c r="D31" s="2">
         <v>3.02</v>
       </c>
-      <c r="E31" s="2" t="n">
+      <c r="E31" s="2">
         <v>26.65</v>
       </c>
-      <c r="F31" s="2" t="n">
+      <c r="F31" s="2">
         <v>27.22</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>96</v>
       </c>
@@ -1434,17 +1649,17 @@
       <c r="C32" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D32" s="2" t="n">
+      <c r="D32" s="2">
         <v>0.12</v>
       </c>
-      <c r="E32" s="2" t="n">
+      <c r="E32" s="2">
         <v>18.71</v>
       </c>
-      <c r="F32" s="2" t="n">
+      <c r="F32" s="2">
         <v>18.13</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>99</v>
       </c>
@@ -1454,17 +1669,17 @@
       <c r="C33" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D33" s="2" t="n">
+      <c r="D33" s="2">
         <v>4.67</v>
       </c>
-      <c r="E33" s="2" t="n">
+      <c r="E33" s="2">
         <v>19.02</v>
       </c>
-      <c r="F33" s="2" t="n">
+      <c r="F33" s="2">
         <v>46.91</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>102</v>
       </c>
@@ -1474,17 +1689,17 @@
       <c r="C34" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D34" s="2" t="n">
+      <c r="D34" s="2">
         <v>2.11</v>
       </c>
-      <c r="E34" s="2" t="n">
+      <c r="E34" s="2">
         <v>2.17</v>
       </c>
-      <c r="F34" s="2" t="n">
+      <c r="F34" s="2">
         <v>44.27</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>105</v>
       </c>
@@ -1494,17 +1709,17 @@
       <c r="C35" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D35" s="2" t="n">
+      <c r="D35" s="2">
         <v>4.09</v>
       </c>
-      <c r="E35" s="2" t="n">
-        <v>9.45</v>
-      </c>
-      <c r="F35" s="2" t="n">
+      <c r="E35" s="2">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="F35" s="2">
         <v>44.43</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>108</v>
       </c>
@@ -1514,17 +1729,17 @@
       <c r="C36" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D36" s="2" t="n">
+      <c r="D36" s="2">
         <v>7.8</v>
       </c>
-      <c r="E36" s="2" t="n">
+      <c r="E36" s="2">
         <v>29.55</v>
       </c>
-      <c r="F36" s="2" t="n">
+      <c r="F36" s="2">
         <v>45.76</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>111</v>
       </c>
@@ -1534,17 +1749,17 @@
       <c r="C37" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D37" s="2" t="n">
+      <c r="D37" s="2">
         <v>10.5</v>
       </c>
-      <c r="E37" s="2" t="n">
+      <c r="E37" s="2">
         <v>3.19</v>
       </c>
-      <c r="F37" s="2" t="n">
+      <c r="F37" s="2">
         <v>17.79</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>114</v>
       </c>
@@ -1554,17 +1769,17 @@
       <c r="C38" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D38" s="2" t="n">
+      <c r="D38" s="2">
         <v>13.62</v>
       </c>
-      <c r="E38" s="2" t="n">
+      <c r="E38" s="2">
         <v>27.69</v>
       </c>
-      <c r="F38" s="2" t="n">
+      <c r="F38" s="2">
         <v>32.76</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>117</v>
       </c>
@@ -1574,17 +1789,17 @@
       <c r="C39" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D39" s="2" t="n">
+      <c r="D39" s="2">
         <v>10.65</v>
       </c>
-      <c r="E39" s="2" t="n">
-        <v>17.08</v>
-      </c>
-      <c r="F39" s="2" t="n">
+      <c r="E39" s="2">
+        <v>17.079999999999998</v>
+      </c>
+      <c r="F39" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>120</v>
       </c>
@@ -1594,17 +1809,17 @@
       <c r="C40" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D40" s="2" t="n">
-        <v>16.99</v>
-      </c>
-      <c r="E40" s="2" t="n">
+      <c r="D40" s="2">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="E40" s="2">
         <v>29.7</v>
       </c>
-      <c r="F40" s="2" t="n">
+      <c r="F40" s="2">
         <v>42.18</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>123</v>
       </c>
@@ -1614,17 +1829,17 @@
       <c r="C41" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D41" s="2" t="n">
+      <c r="D41" s="2">
         <v>11.69</v>
       </c>
-      <c r="E41" s="2" t="n">
+      <c r="E41" s="2">
         <v>4.55</v>
       </c>
-      <c r="F41" s="2" t="n">
+      <c r="F41" s="2">
         <v>5.57</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>126</v>
       </c>
@@ -1634,17 +1849,17 @@
       <c r="C42" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D42" s="2" t="n">
+      <c r="D42" s="2">
         <v>6.13</v>
       </c>
-      <c r="E42" s="2" t="n">
+      <c r="E42" s="2">
         <v>21.47</v>
       </c>
-      <c r="F42" s="2" t="n">
+      <c r="F42" s="2">
         <v>30.28</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>129</v>
       </c>
@@ -1654,17 +1869,17 @@
       <c r="C43" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D43" s="2" t="n">
+      <c r="D43" s="2">
         <v>11.72</v>
       </c>
-      <c r="E43" s="2" t="n">
+      <c r="E43" s="2">
         <v>18.13</v>
       </c>
-      <c r="F43" s="2" t="n">
+      <c r="F43" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>132</v>
       </c>
@@ -1674,17 +1889,17 @@
       <c r="C44" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D44" s="2" t="n">
+      <c r="D44" s="2">
         <v>15</v>
       </c>
-      <c r="E44" s="2" t="n">
+      <c r="E44" s="2">
         <v>6.24</v>
       </c>
-      <c r="F44" s="2" t="n">
+      <c r="F44" s="2">
         <v>13.01</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>135</v>
       </c>
@@ -1694,17 +1909,17 @@
       <c r="C45" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D45" s="2" t="n">
-        <v>10.03</v>
-      </c>
-      <c r="E45" s="2" t="n">
+      <c r="D45" s="2">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="E45" s="2">
         <v>19.62</v>
       </c>
-      <c r="F45" s="2" t="n">
+      <c r="F45" s="2">
         <v>32.31</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>138</v>
       </c>
@@ -1714,17 +1929,17 @@
       <c r="C46" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D46" s="2" t="n">
+      <c r="D46" s="2">
         <v>3.75</v>
       </c>
-      <c r="E46" s="2" t="n">
+      <c r="E46" s="2">
         <v>10.51</v>
       </c>
-      <c r="F46" s="2" t="n">
+      <c r="F46" s="2">
         <v>25.43</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>141</v>
       </c>
@@ -1734,17 +1949,17 @@
       <c r="C47" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D47" s="2" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="E47" s="2" t="n">
+      <c r="D47" s="2">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="E47" s="2">
         <v>24.41</v>
       </c>
-      <c r="F47" s="2" t="n">
+      <c r="F47" s="2">
         <v>8.66</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>144</v>
       </c>
@@ -1754,17 +1969,17 @@
       <c r="C48" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D48" s="2" t="n">
-        <v>19.44</v>
-      </c>
-      <c r="E48" s="2" t="n">
+      <c r="D48" s="2">
+        <v>19.440000000000001</v>
+      </c>
+      <c r="E48" s="2">
         <v>15.47</v>
       </c>
-      <c r="F48" s="2" t="n">
+      <c r="F48" s="2">
         <v>4.76</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>147</v>
       </c>
@@ -1774,17 +1989,17 @@
       <c r="C49" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D49" s="2" t="n">
+      <c r="D49" s="2">
         <v>12.41</v>
       </c>
-      <c r="E49" s="2" t="n">
+      <c r="E49" s="2">
         <v>2.06</v>
       </c>
-      <c r="F49" s="2" t="n">
+      <c r="F49" s="2">
         <v>15.31</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>150</v>
       </c>
@@ -1794,17 +2009,17 @@
       <c r="C50" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D50" s="2" t="n">
+      <c r="D50" s="2">
         <v>17.59</v>
       </c>
-      <c r="E50" s="2" t="n">
+      <c r="E50" s="2">
         <v>21.58</v>
       </c>
-      <c r="F50" s="2" t="n">
-        <v>17.24</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F50" s="2">
+        <v>17.239999999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>153</v>
       </c>
@@ -1814,17 +2029,17 @@
       <c r="C51" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D51" s="1" t="n">
+      <c r="D51" s="1">
         <v>20</v>
       </c>
-      <c r="E51" s="1" t="n">
+      <c r="E51" s="1">
         <v>30</v>
       </c>
-      <c r="F51" s="1" t="n">
+      <c r="F51" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>156</v>
       </c>
@@ -1834,17 +2049,17 @@
       <c r="C52" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D52" s="1" t="n">
+      <c r="D52" s="1">
         <v>14.93</v>
       </c>
-      <c r="E52" s="1" t="n">
+      <c r="E52" s="1">
         <v>16.63</v>
       </c>
-      <c r="F52" s="1" t="n">
+      <c r="F52" s="1">
         <v>27.6</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>159</v>
       </c>
@@ -1854,17 +2069,17 @@
       <c r="C53" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D53" s="1" t="n">
+      <c r="D53" s="1">
         <v>6.03</v>
       </c>
-      <c r="E53" s="1" t="n">
-        <v>18.21</v>
-      </c>
-      <c r="F53" s="1" t="n">
+      <c r="E53" s="1">
+        <v>20</v>
+      </c>
+      <c r="F53" s="1">
         <v>30.18</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>162</v>
       </c>
@@ -1874,17 +2089,17 @@
       <c r="C54" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D54" s="1" t="n">
+      <c r="D54" s="1">
         <v>10.85</v>
       </c>
-      <c r="E54" s="1" t="n">
+      <c r="E54" s="1">
         <v>5.73</v>
       </c>
-      <c r="F54" s="1" t="n">
+      <c r="F54" s="1">
         <v>47.26</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>165</v>
       </c>
@@ -1894,17 +2109,17 @@
       <c r="C55" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D55" s="1" t="n">
+      <c r="D55" s="1">
         <v>6.69</v>
       </c>
-      <c r="E55" s="1" t="n">
+      <c r="E55" s="1">
         <v>16.47</v>
       </c>
-      <c r="F55" s="1" t="n">
+      <c r="F55" s="1">
         <v>46.51</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>168</v>
       </c>
@@ -1914,17 +2129,17 @@
       <c r="C56" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D56" s="1" t="n">
+      <c r="D56" s="1">
         <v>17.41</v>
       </c>
-      <c r="E56" s="1" t="n">
+      <c r="E56" s="1">
         <v>1.46</v>
       </c>
-      <c r="F56" s="1" t="n">
+      <c r="F56" s="1">
         <v>16.02</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>171</v>
       </c>
@@ -1934,17 +2149,17 @@
       <c r="C57" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D57" s="1" t="n">
+      <c r="D57" s="1">
         <v>14.01</v>
       </c>
-      <c r="E57" s="1" t="n">
+      <c r="E57" s="1">
         <v>29.44</v>
       </c>
-      <c r="F57" s="1" t="n">
+      <c r="F57" s="1">
         <v>3.52</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>174</v>
       </c>
@@ -1954,17 +2169,17 @@
       <c r="C58" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D58" s="1" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="E58" s="1" t="n">
+      <c r="D58" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E58" s="1">
         <v>12.12</v>
       </c>
-      <c r="F58" s="1" t="n">
+      <c r="F58" s="1">
         <v>0.06</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>177</v>
       </c>
@@ -1974,17 +2189,17 @@
       <c r="C59" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D59" s="1" t="n">
+      <c r="D59" s="1">
         <v>18.88</v>
       </c>
-      <c r="E59" s="1" t="n">
+      <c r="E59" s="1">
         <v>11.28</v>
       </c>
-      <c r="F59" s="1" t="n">
+      <c r="F59" s="1">
         <v>46.41</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>180</v>
       </c>
@@ -1994,17 +2209,17 @@
       <c r="C60" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D60" s="1" t="n">
+      <c r="D60" s="1">
         <v>12.34</v>
       </c>
-      <c r="E60" s="1" t="n">
+      <c r="E60" s="1">
         <v>5.43</v>
       </c>
-      <c r="F60" s="1" t="n">
+      <c r="F60" s="1">
         <v>8.35</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>183</v>
       </c>
@@ -2014,29 +2229,24 @@
       <c r="C61" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D61" s="1" t="n">
+      <c r="D61" s="1">
         <v>5</v>
       </c>
-      <c r="E61" s="1" t="n">
+      <c r="E61" s="1">
         <v>20</v>
       </c>
-      <c r="F61" s="1" t="n">
+      <c r="F61" s="1">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>